--- a/biology/Botanique/Stefano_Moricand/Stefano_Moricand.xlsx
+++ b/biology/Botanique/Stefano_Moricand/Stefano_Moricand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moïse-Étienne Moricand, surnommé Stefano Moricand, né en 1779 à Genève et mort en 1854 à Vandœuvres (localité de Chougny), est un naturaliste suisse. Il a notamment étudié la flore des Amériques et de l'Italie, et décrit de nombreuses espèces de mollusques.
-Il est le cofondateur de la Société des naturalistes de Genève ainsi que du Musée académique de Genève, correspondant aujourd'hui au Muséum d'histoire naturelle de Genève[1].
+Il est le cofondateur de la Société des naturalistes de Genève ainsi que du Musée académique de Genève, correspondant aujourd'hui au Muséum d'histoire naturelle de Genève.
 Son fils, Jacques André Moricand (1823-1877), devient également un spécialiste des mollusques.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre de plantes de la famille des Brassicaceae est dédié à Stefano Moricand :
 Moricandia
